--- a/Datos/JASP_Datos_subjuego1_r3.xlsx
+++ b/Datos/JASP_Datos_subjuego1_r3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>Sesion</t>
   </si>
@@ -272,12 +272,6 @@
     <t>W3</t>
   </si>
   <si>
-    <t>W3pre</t>
-  </si>
-  <si>
-    <t>W3pos</t>
-  </si>
-  <si>
     <t>G3</t>
   </si>
   <si>
@@ -327,7 +321,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,12 +444,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFCCCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -533,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -578,7 +566,6 @@
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -894,15 +881,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CN37"/>
+  <dimension ref="A1:CL37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="BZ1" workbookViewId="0">
+      <selection activeCell="CA8" sqref="CA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1149,13 +1136,13 @@
       <c r="CD1" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="23" t="s">
+      <c r="CE1" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="23" t="s">
+      <c r="CF1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="24" t="s">
+      <c r="CG1" s="1" t="s">
         <v>84</v>
       </c>
       <c r="CH1" s="1" t="s">
@@ -1170,15 +1157,9 @@
       <c r="CK1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CN1" s="25"/>
+      <c r="CL1" s="25"/>
     </row>
-    <row r="2" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1425,30 +1406,24 @@
       <c r="CD2" s="32">
         <v>1</v>
       </c>
-      <c r="CE2" s="33">
-        <v>1</v>
+      <c r="CE2" s="32">
+        <v>0</v>
       </c>
       <c r="CF2" s="33">
-        <v>0</v>
-      </c>
-      <c r="CG2" s="32">
-        <v>0</v>
-      </c>
-      <c r="CH2" s="34">
-        <v>1</v>
-      </c>
-      <c r="CI2" s="35">
-        <v>0</v>
-      </c>
-      <c r="CJ2" s="1">
+        <v>1</v>
+      </c>
+      <c r="CG2" s="34">
+        <v>0</v>
+      </c>
+      <c r="CH2" s="1">
         <v>6</v>
       </c>
+      <c r="CI2" s="25"/>
+      <c r="CJ2" s="25"/>
       <c r="CK2" s="25"/>
       <c r="CL2" s="25"/>
-      <c r="CM2" s="25"/>
-      <c r="CN2" s="25"/>
     </row>
-    <row r="3" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1458,10 +1433,10 @@
       <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="35">
         <v>33</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="36">
         <v>71</v>
       </c>
       <c r="F3" s="5">
@@ -1695,30 +1670,24 @@
       <c r="CD3" s="32">
         <v>0</v>
       </c>
-      <c r="CE3" s="33">
-        <v>0</v>
-      </c>
-      <c r="CF3" s="33">
-        <v>0</v>
-      </c>
-      <c r="CG3" s="32">
-        <v>0</v>
-      </c>
-      <c r="CH3" s="1">
+      <c r="CE3" s="32">
+        <v>0</v>
+      </c>
+      <c r="CF3" s="1">
         <v>7</v>
       </c>
-      <c r="CI3" s="1">
-        <v>1</v>
-      </c>
-      <c r="CJ3" s="35">
-        <v>0</v>
-      </c>
+      <c r="CG3" s="1">
+        <v>1</v>
+      </c>
+      <c r="CH3" s="34">
+        <v>0</v>
+      </c>
+      <c r="CI3" s="25"/>
+      <c r="CJ3" s="25"/>
       <c r="CK3" s="25"/>
       <c r="CL3" s="25"/>
-      <c r="CM3" s="25"/>
-      <c r="CN3" s="25"/>
     </row>
-    <row r="4" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1731,7 +1700,7 @@
       <c r="D4" s="3">
         <v>27</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="36">
         <v>30</v>
       </c>
       <c r="F4" s="5">
@@ -1965,30 +1934,24 @@
       <c r="CD4" s="32">
         <v>1</v>
       </c>
-      <c r="CE4" s="33">
-        <v>1</v>
-      </c>
-      <c r="CF4" s="33">
-        <v>0</v>
-      </c>
-      <c r="CG4" s="32">
-        <v>1</v>
+      <c r="CE4" s="32">
+        <v>1</v>
+      </c>
+      <c r="CF4" s="1">
+        <v>1</v>
+      </c>
+      <c r="CG4" s="1">
+        <v>0</v>
       </c>
       <c r="CH4" s="1">
-        <v>1</v>
-      </c>
-      <c r="CI4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ4" s="1">
         <v>7</v>
       </c>
+      <c r="CI4" s="25"/>
+      <c r="CJ4" s="25"/>
       <c r="CK4" s="25"/>
       <c r="CL4" s="25"/>
-      <c r="CM4" s="25"/>
-      <c r="CN4" s="25"/>
     </row>
-    <row r="5" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1998,7 +1961,7 @@
       <c r="C5" s="1">
         <v>4</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="37">
         <v>7</v>
       </c>
       <c r="E5" s="4">
@@ -2235,36 +2198,30 @@
       <c r="CD5" s="32">
         <v>0</v>
       </c>
-      <c r="CE5" s="33">
-        <v>0</v>
-      </c>
-      <c r="CF5" s="33">
-        <v>1</v>
-      </c>
-      <c r="CG5" s="32">
-        <v>0</v>
+      <c r="CE5" s="32">
+        <v>0</v>
+      </c>
+      <c r="CF5" s="1">
+        <v>7</v>
+      </c>
+      <c r="CG5" s="1">
+        <v>1</v>
       </c>
       <c r="CH5" s="1">
-        <v>7</v>
-      </c>
-      <c r="CI5" s="1">
-        <v>1</v>
-      </c>
-      <c r="CJ5" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="CI5" s="25">
+        <v>16</v>
+      </c>
+      <c r="CJ5" s="25">
+        <v>2</v>
       </c>
       <c r="CK5" s="25">
-        <v>16</v>
-      </c>
-      <c r="CL5" s="25">
-        <v>2</v>
-      </c>
-      <c r="CM5" s="25">
         <v>13</v>
       </c>
-      <c r="CN5" s="25"/>
+      <c r="CL5" s="25"/>
     </row>
-    <row r="6" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -2511,30 +2468,24 @@
       <c r="CD6" s="32">
         <v>0</v>
       </c>
-      <c r="CE6" s="33">
-        <v>0</v>
-      </c>
-      <c r="CF6" s="33">
-        <v>0</v>
-      </c>
-      <c r="CG6" s="32">
-        <v>0</v>
+      <c r="CE6" s="32">
+        <v>0</v>
+      </c>
+      <c r="CF6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG6" s="1">
+        <v>6</v>
       </c>
       <c r="CH6" s="1">
         <v>0</v>
       </c>
-      <c r="CI6" s="1">
-        <v>6</v>
-      </c>
-      <c r="CJ6" s="1">
-        <v>0</v>
-      </c>
+      <c r="CI6" s="25"/>
+      <c r="CJ6" s="25"/>
       <c r="CK6" s="25"/>
       <c r="CL6" s="25"/>
-      <c r="CM6" s="25"/>
-      <c r="CN6" s="25"/>
     </row>
-    <row r="7" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -2547,7 +2498,7 @@
       <c r="D7" s="3">
         <v>40</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="38">
         <v>45</v>
       </c>
       <c r="F7" s="5">
@@ -2781,30 +2732,24 @@
       <c r="CD7" s="32">
         <v>0</v>
       </c>
-      <c r="CE7" s="33">
-        <v>0</v>
-      </c>
-      <c r="CF7" s="33">
-        <v>1</v>
-      </c>
-      <c r="CG7" s="32">
-        <v>1</v>
+      <c r="CE7" s="32">
+        <v>1</v>
+      </c>
+      <c r="CF7" s="1">
+        <v>6</v>
+      </c>
+      <c r="CG7" s="1">
+        <v>0</v>
       </c>
       <c r="CH7" s="1">
-        <v>6</v>
-      </c>
-      <c r="CI7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ7" s="1">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="CI7" s="25"/>
+      <c r="CJ7" s="25"/>
       <c r="CK7" s="25"/>
       <c r="CL7" s="25"/>
-      <c r="CM7" s="25"/>
-      <c r="CN7" s="25"/>
     </row>
-    <row r="8" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -2814,10 +2759,10 @@
       <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="37">
         <v>60</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="36">
         <v>35</v>
       </c>
       <c r="F8" s="5">
@@ -3051,30 +2996,24 @@
       <c r="CD8" s="32">
         <v>1</v>
       </c>
-      <c r="CE8" s="33">
-        <v>0</v>
-      </c>
-      <c r="CF8" s="33">
-        <v>0</v>
-      </c>
-      <c r="CG8" s="32">
-        <v>1</v>
+      <c r="CE8" s="32">
+        <v>1</v>
+      </c>
+      <c r="CF8" s="1">
+        <v>1</v>
+      </c>
+      <c r="CG8" s="1">
+        <v>4</v>
       </c>
       <c r="CH8" s="1">
-        <v>1</v>
-      </c>
-      <c r="CI8" s="1">
         <v>4</v>
       </c>
-      <c r="CJ8" s="1">
-        <v>4</v>
-      </c>
+      <c r="CI8" s="25"/>
+      <c r="CJ8" s="25"/>
       <c r="CK8" s="25"/>
       <c r="CL8" s="25"/>
-      <c r="CM8" s="25"/>
-      <c r="CN8" s="25"/>
     </row>
-    <row r="9" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -3084,10 +3023,10 @@
       <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="37">
         <v>28</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="36">
         <v>25</v>
       </c>
       <c r="F9" s="26">
@@ -3321,36 +3260,30 @@
       <c r="CD9" s="32">
         <v>0</v>
       </c>
-      <c r="CE9" s="33">
-        <v>1</v>
-      </c>
-      <c r="CF9" s="33">
-        <v>0</v>
-      </c>
-      <c r="CG9" s="32">
-        <v>0</v>
+      <c r="CE9" s="32">
+        <v>0</v>
+      </c>
+      <c r="CF9" s="1">
+        <v>2</v>
+      </c>
+      <c r="CG9" s="1">
+        <v>7</v>
       </c>
       <c r="CH9" s="1">
-        <v>2</v>
-      </c>
-      <c r="CI9" s="1">
-        <v>7</v>
-      </c>
-      <c r="CJ9" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="CI9" s="25">
+        <v>9</v>
+      </c>
+      <c r="CJ9" s="25">
+        <v>17</v>
       </c>
       <c r="CK9" s="25">
-        <v>9</v>
-      </c>
-      <c r="CL9" s="25">
-        <v>17</v>
-      </c>
-      <c r="CM9" s="25">
         <v>5</v>
       </c>
-      <c r="CN9" s="25"/>
+      <c r="CL9" s="25"/>
     </row>
-    <row r="10" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -3360,13 +3293,13 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="37">
         <v>12</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="36">
         <v>36</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="39">
         <v>24</v>
       </c>
       <c r="G10" s="25">
@@ -3597,30 +3530,24 @@
       <c r="CD10" s="32">
         <v>0</v>
       </c>
-      <c r="CE10" s="33">
-        <v>0</v>
-      </c>
-      <c r="CF10" s="33">
-        <v>1</v>
-      </c>
-      <c r="CG10" s="32">
-        <v>0</v>
+      <c r="CE10" s="32">
+        <v>0</v>
+      </c>
+      <c r="CF10" s="1">
+        <v>7</v>
+      </c>
+      <c r="CG10" s="1">
+        <v>2</v>
       </c>
       <c r="CH10" s="1">
-        <v>7</v>
-      </c>
-      <c r="CI10" s="1">
-        <v>2</v>
-      </c>
-      <c r="CJ10" s="1">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="CI10" s="25"/>
+      <c r="CJ10" s="25"/>
       <c r="CK10" s="25"/>
       <c r="CL10" s="25"/>
-      <c r="CM10" s="25"/>
-      <c r="CN10" s="25"/>
     </row>
-    <row r="11" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -3630,7 +3557,7 @@
       <c r="C11" s="1">
         <v>2</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="37">
         <v>15</v>
       </c>
       <c r="E11" s="4">
@@ -3867,30 +3794,24 @@
       <c r="CD11" s="32">
         <v>0</v>
       </c>
-      <c r="CE11" s="33">
-        <v>0</v>
-      </c>
-      <c r="CF11" s="33">
-        <v>0</v>
-      </c>
-      <c r="CG11" s="32">
-        <v>0</v>
+      <c r="CE11" s="32">
+        <v>0</v>
+      </c>
+      <c r="CF11" s="1">
+        <v>7</v>
+      </c>
+      <c r="CG11" s="1">
+        <v>1</v>
       </c>
       <c r="CH11" s="1">
-        <v>7</v>
-      </c>
-      <c r="CI11" s="1">
-        <v>1</v>
-      </c>
-      <c r="CJ11" s="1">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="CI11" s="25"/>
+      <c r="CJ11" s="25"/>
       <c r="CK11" s="25"/>
       <c r="CL11" s="25"/>
-      <c r="CM11" s="25"/>
-      <c r="CN11" s="25"/>
     </row>
-    <row r="12" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -3900,10 +3821,10 @@
       <c r="C12" s="1">
         <v>3</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="37">
         <v>24</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="36">
         <v>12</v>
       </c>
       <c r="F12" s="5">
@@ -4137,30 +4058,24 @@
       <c r="CD12" s="32">
         <v>0</v>
       </c>
-      <c r="CE12" s="33">
-        <v>1</v>
-      </c>
-      <c r="CF12" s="33">
-        <v>0</v>
-      </c>
-      <c r="CG12" s="32">
-        <v>0</v>
+      <c r="CE12" s="32">
+        <v>0</v>
+      </c>
+      <c r="CF12" s="1">
+        <v>1</v>
+      </c>
+      <c r="CG12" s="1">
+        <v>7</v>
       </c>
       <c r="CH12" s="1">
-        <v>1</v>
-      </c>
-      <c r="CI12" s="1">
-        <v>7</v>
-      </c>
-      <c r="CJ12" s="1">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="CI12" s="25"/>
+      <c r="CJ12" s="25"/>
       <c r="CK12" s="25"/>
       <c r="CL12" s="25"/>
-      <c r="CM12" s="25"/>
-      <c r="CN12" s="25"/>
     </row>
-    <row r="13" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -4173,7 +4088,7 @@
       <c r="D13" s="3">
         <v>14</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13" s="36">
         <v>18</v>
       </c>
       <c r="F13" s="26">
@@ -4407,36 +4322,30 @@
       <c r="CD13" s="32">
         <v>0</v>
       </c>
-      <c r="CE13" s="33">
-        <v>1</v>
-      </c>
-      <c r="CF13" s="33">
-        <v>0</v>
-      </c>
-      <c r="CG13" s="32">
-        <v>1</v>
+      <c r="CE13" s="32">
+        <v>1</v>
+      </c>
+      <c r="CF13" s="1">
+        <v>8</v>
+      </c>
+      <c r="CG13" s="1">
+        <v>0</v>
       </c>
       <c r="CH13" s="1">
-        <v>8</v>
-      </c>
-      <c r="CI13" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ13" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="CI13" s="25">
+        <v>23</v>
+      </c>
+      <c r="CJ13" s="25">
+        <v>10</v>
       </c>
       <c r="CK13" s="25">
-        <v>23</v>
-      </c>
-      <c r="CL13" s="25">
-        <v>10</v>
-      </c>
-      <c r="CM13" s="25">
-        <v>1</v>
-      </c>
-      <c r="CN13" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="CL13" s="25"/>
     </row>
-    <row r="14" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>5</v>
       </c>
@@ -4683,30 +4592,24 @@
       <c r="CD14" s="32">
         <v>0</v>
       </c>
-      <c r="CE14" s="33">
-        <v>0</v>
-      </c>
-      <c r="CF14" s="33">
-        <v>1</v>
-      </c>
-      <c r="CG14" s="32">
-        <v>1</v>
+      <c r="CE14" s="32">
+        <v>1</v>
+      </c>
+      <c r="CF14" s="1">
+        <v>6</v>
+      </c>
+      <c r="CG14" s="1">
+        <v>0</v>
       </c>
       <c r="CH14" s="1">
-        <v>6</v>
-      </c>
-      <c r="CI14" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ14" s="1">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="CI14" s="25"/>
+      <c r="CJ14" s="25"/>
       <c r="CK14" s="25"/>
       <c r="CL14" s="25"/>
-      <c r="CM14" s="25"/>
-      <c r="CN14" s="25"/>
     </row>
-    <row r="15" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>5</v>
       </c>
@@ -4953,30 +4856,24 @@
       <c r="CD15" s="32">
         <v>0</v>
       </c>
-      <c r="CE15" s="33">
-        <v>0</v>
-      </c>
-      <c r="CF15" s="33">
-        <v>1</v>
-      </c>
-      <c r="CG15" s="32">
-        <v>0</v>
+      <c r="CE15" s="32">
+        <v>0</v>
+      </c>
+      <c r="CF15" s="1">
+        <v>1</v>
+      </c>
+      <c r="CG15" s="1">
+        <v>6</v>
       </c>
       <c r="CH15" s="1">
-        <v>1</v>
-      </c>
-      <c r="CI15" s="1">
-        <v>6</v>
-      </c>
-      <c r="CJ15" s="1">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="CI15" s="25"/>
+      <c r="CJ15" s="25"/>
       <c r="CK15" s="25"/>
       <c r="CL15" s="25"/>
-      <c r="CM15" s="25"/>
-      <c r="CN15" s="25"/>
     </row>
-    <row r="16" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>5</v>
       </c>
@@ -5223,30 +5120,24 @@
       <c r="CD16" s="32">
         <v>0</v>
       </c>
-      <c r="CE16" s="33">
-        <v>0</v>
-      </c>
-      <c r="CF16" s="33">
-        <v>1</v>
-      </c>
-      <c r="CG16" s="32">
-        <v>1</v>
+      <c r="CE16" s="32">
+        <v>1</v>
+      </c>
+      <c r="CF16" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG16" s="1">
+        <v>6</v>
       </c>
       <c r="CH16" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI16" s="1">
-        <v>6</v>
-      </c>
-      <c r="CJ16" s="1">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="CI16" s="25"/>
+      <c r="CJ16" s="25"/>
       <c r="CK16" s="25"/>
       <c r="CL16" s="25"/>
-      <c r="CM16" s="25"/>
-      <c r="CN16" s="25"/>
     </row>
-    <row r="17" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>5</v>
       </c>
@@ -5259,7 +5150,7 @@
       <c r="D17" s="3">
         <v>3</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="36">
         <v>8</v>
       </c>
       <c r="F17" s="26">
@@ -5493,36 +5384,30 @@
       <c r="CD17" s="32">
         <v>0</v>
       </c>
-      <c r="CE17" s="33">
-        <v>0</v>
-      </c>
-      <c r="CF17" s="33">
-        <v>0</v>
-      </c>
-      <c r="CG17" s="32">
-        <v>1</v>
+      <c r="CE17" s="32">
+        <v>1</v>
+      </c>
+      <c r="CF17" s="1">
+        <v>8</v>
+      </c>
+      <c r="CG17" s="1">
+        <v>0</v>
       </c>
       <c r="CH17" s="1">
-        <v>8</v>
-      </c>
-      <c r="CI17" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ17" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="CI17" s="25">
+        <v>15</v>
+      </c>
+      <c r="CJ17" s="25">
+        <v>12</v>
       </c>
       <c r="CK17" s="25">
-        <v>15</v>
-      </c>
-      <c r="CL17" s="25">
-        <v>12</v>
-      </c>
-      <c r="CM17" s="25">
         <v>3</v>
       </c>
-      <c r="CN17" s="25"/>
+      <c r="CL17" s="25"/>
     </row>
-    <row r="18" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>6</v>
       </c>
@@ -5769,26 +5654,24 @@
       <c r="CD18" s="32">
         <v>0</v>
       </c>
-      <c r="CE18" s="32"/>
-      <c r="CF18" s="32"/>
-      <c r="CG18" s="32">
-        <v>0</v>
+      <c r="CE18" s="32">
+        <v>0</v>
+      </c>
+      <c r="CF18" s="1">
+        <v>6</v>
+      </c>
+      <c r="CG18" s="1">
+        <v>1</v>
       </c>
       <c r="CH18" s="1">
-        <v>6</v>
-      </c>
-      <c r="CI18" s="1">
-        <v>1</v>
-      </c>
-      <c r="CJ18" s="1">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="CI18" s="25"/>
+      <c r="CJ18" s="25"/>
       <c r="CK18" s="25"/>
       <c r="CL18" s="25"/>
-      <c r="CM18" s="25"/>
-      <c r="CN18" s="25"/>
     </row>
-    <row r="19" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>6</v>
       </c>
@@ -6035,26 +5918,24 @@
       <c r="CD19" s="32">
         <v>0</v>
       </c>
-      <c r="CE19" s="32"/>
-      <c r="CF19" s="32"/>
-      <c r="CG19" s="32">
+      <c r="CE19" s="32">
+        <v>0</v>
+      </c>
+      <c r="CF19" s="1">
+        <v>7</v>
+      </c>
+      <c r="CG19" s="1">
         <v>0</v>
       </c>
       <c r="CH19" s="1">
-        <v>7</v>
-      </c>
-      <c r="CI19" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ19" s="1">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="CI19" s="25"/>
+      <c r="CJ19" s="25"/>
       <c r="CK19" s="25"/>
       <c r="CL19" s="25"/>
-      <c r="CM19" s="25"/>
-      <c r="CN19" s="25"/>
     </row>
-    <row r="20" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>6</v>
       </c>
@@ -6301,26 +6182,24 @@
       <c r="CD20" s="32">
         <v>1</v>
       </c>
-      <c r="CE20" s="32"/>
-      <c r="CF20" s="32"/>
-      <c r="CG20" s="32">
-        <v>1</v>
+      <c r="CE20" s="32">
+        <v>1</v>
+      </c>
+      <c r="CF20" s="1">
+        <v>1</v>
+      </c>
+      <c r="CG20" s="1">
+        <v>0</v>
       </c>
       <c r="CH20" s="1">
-        <v>1</v>
-      </c>
-      <c r="CI20" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ20" s="1">
         <v>6</v>
       </c>
+      <c r="CI20" s="25"/>
+      <c r="CJ20" s="25"/>
       <c r="CK20" s="25"/>
       <c r="CL20" s="25"/>
-      <c r="CM20" s="25"/>
-      <c r="CN20" s="25"/>
     </row>
-    <row r="21" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>6</v>
       </c>
@@ -6421,7 +6300,7 @@
         <v>0.46190476190476198</v>
       </c>
       <c r="AH21" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI21" s="28">
         <v>0</v>
@@ -6567,32 +6446,30 @@
       <c r="CD21" s="32">
         <v>1</v>
       </c>
-      <c r="CE21" s="32"/>
-      <c r="CF21" s="32"/>
-      <c r="CG21" s="32">
+      <c r="CE21" s="32">
+        <v>0</v>
+      </c>
+      <c r="CF21" s="1">
+        <v>3</v>
+      </c>
+      <c r="CG21" s="1">
         <v>0</v>
       </c>
       <c r="CH21" s="1">
         <v>3</v>
       </c>
-      <c r="CI21" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ21" s="1">
-        <v>3</v>
+      <c r="CI21" s="25">
+        <v>17</v>
+      </c>
+      <c r="CJ21" s="25">
+        <v>1</v>
       </c>
       <c r="CK21" s="25">
-        <v>17</v>
-      </c>
-      <c r="CL21" s="25">
-        <v>1</v>
-      </c>
-      <c r="CM21" s="25">
         <v>9</v>
       </c>
-      <c r="CN21" s="25"/>
+      <c r="CL21" s="25"/>
     </row>
-    <row r="22" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>7</v>
       </c>
@@ -6605,7 +6482,7 @@
       <c r="D22" s="3">
         <v>35</v>
       </c>
-      <c r="E22" s="37">
+      <c r="E22" s="36">
         <v>55</v>
       </c>
       <c r="F22" s="5">
@@ -6839,26 +6716,24 @@
       <c r="CD22" s="32">
         <v>0</v>
       </c>
-      <c r="CE22" s="32"/>
-      <c r="CF22" s="32"/>
-      <c r="CG22" s="32">
+      <c r="CE22" s="32">
+        <v>0</v>
+      </c>
+      <c r="CF22" s="1">
+        <v>7</v>
+      </c>
+      <c r="CG22" s="1">
         <v>0</v>
       </c>
       <c r="CH22" s="1">
-        <v>7</v>
-      </c>
-      <c r="CI22" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ22" s="1">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="CI22" s="25"/>
+      <c r="CJ22" s="25"/>
       <c r="CK22" s="25"/>
       <c r="CL22" s="25"/>
-      <c r="CM22" s="25"/>
-      <c r="CN22" s="25"/>
     </row>
-    <row r="23" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>7</v>
       </c>
@@ -6868,7 +6743,7 @@
       <c r="C23" s="1">
         <v>2</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="37">
         <v>25</v>
       </c>
       <c r="E23" s="4">
@@ -7105,26 +6980,24 @@
       <c r="CD23" s="32">
         <v>0</v>
       </c>
-      <c r="CE23" s="32"/>
-      <c r="CF23" s="32"/>
-      <c r="CG23" s="32">
-        <v>0</v>
+      <c r="CE23" s="32">
+        <v>0</v>
+      </c>
+      <c r="CF23" s="1">
+        <v>6</v>
+      </c>
+      <c r="CG23" s="1">
+        <v>1</v>
       </c>
       <c r="CH23" s="1">
-        <v>6</v>
-      </c>
-      <c r="CI23" s="1">
-        <v>1</v>
-      </c>
-      <c r="CJ23" s="1">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="CI23" s="25"/>
+      <c r="CJ23" s="25"/>
       <c r="CK23" s="25"/>
       <c r="CL23" s="25"/>
-      <c r="CM23" s="25"/>
-      <c r="CN23" s="25"/>
     </row>
-    <row r="24" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>7</v>
       </c>
@@ -7134,7 +7007,7 @@
       <c r="C24" s="1">
         <v>3</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="37">
         <v>27</v>
       </c>
       <c r="E24" s="4">
@@ -7371,26 +7244,24 @@
       <c r="CD24" s="32">
         <v>1</v>
       </c>
-      <c r="CE24" s="32"/>
-      <c r="CF24" s="32"/>
-      <c r="CG24" s="32">
+      <c r="CE24" s="32">
+        <v>1</v>
+      </c>
+      <c r="CF24" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG24" s="1">
         <v>1</v>
       </c>
       <c r="CH24" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CJ24" s="1">
         <v>7</v>
       </c>
+      <c r="CI24" s="25"/>
+      <c r="CJ24" s="25"/>
       <c r="CK24" s="25"/>
       <c r="CL24" s="25"/>
-      <c r="CM24" s="25"/>
-      <c r="CN24" s="25"/>
     </row>
-    <row r="25" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>7</v>
       </c>
@@ -7637,32 +7508,30 @@
       <c r="CD25" s="32">
         <v>1</v>
       </c>
-      <c r="CE25" s="32"/>
-      <c r="CF25" s="32"/>
-      <c r="CG25" s="32">
+      <c r="CE25" s="32">
+        <v>0</v>
+      </c>
+      <c r="CF25" s="1">
+        <v>1</v>
+      </c>
+      <c r="CG25" s="1">
         <v>0</v>
       </c>
       <c r="CH25" s="1">
-        <v>1</v>
-      </c>
-      <c r="CI25" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ25" s="1">
         <v>6</v>
       </c>
+      <c r="CI25" s="25">
+        <v>14</v>
+      </c>
+      <c r="CJ25" s="25">
+        <v>2</v>
+      </c>
       <c r="CK25" s="25">
-        <v>14</v>
-      </c>
-      <c r="CL25" s="25">
-        <v>2</v>
-      </c>
-      <c r="CM25" s="25">
         <v>13</v>
       </c>
-      <c r="CN25" s="25"/>
+      <c r="CL25" s="25"/>
     </row>
-    <row r="26" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>8</v>
       </c>
@@ -7696,10 +7565,10 @@
       <c r="K26" s="27">
         <v>-6.1111111111111107</v>
       </c>
-      <c r="L26" s="41">
+      <c r="L26" s="40">
         <v>45</v>
       </c>
-      <c r="M26" s="41">
+      <c r="M26" s="40">
         <v>55</v>
       </c>
       <c r="N26" s="7">
@@ -7768,10 +7637,10 @@
       <c r="AI26" s="28">
         <v>0</v>
       </c>
-      <c r="AJ26" s="42">
+      <c r="AJ26" s="41">
         <v>50</v>
       </c>
-      <c r="AK26" s="42">
+      <c r="AK26" s="41">
         <v>70</v>
       </c>
       <c r="AL26" s="13">
@@ -7907,28 +7776,26 @@
         <v>9.8039215686274536E-2</v>
       </c>
       <c r="CD26" s="32">
-        <v>0</v>
-      </c>
-      <c r="CE26" s="32"/>
-      <c r="CF26" s="32"/>
-      <c r="CG26" s="32">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="CE26" s="32">
+        <v>0</v>
+      </c>
+      <c r="CF26" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG26" s="1">
+        <v>3</v>
       </c>
       <c r="CH26" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI26" s="1">
         <v>3</v>
       </c>
-      <c r="CJ26" s="1">
-        <v>3</v>
-      </c>
+      <c r="CI26" s="25"/>
+      <c r="CJ26" s="25"/>
       <c r="CK26" s="25"/>
       <c r="CL26" s="25"/>
-      <c r="CM26" s="25"/>
-      <c r="CN26" s="25"/>
     </row>
-    <row r="27" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>8</v>
       </c>
@@ -7938,7 +7805,7 @@
       <c r="C27" s="1">
         <v>2</v>
       </c>
-      <c r="D27" s="39">
+      <c r="D27" s="38">
         <v>30</v>
       </c>
       <c r="E27" s="9">
@@ -7962,10 +7829,10 @@
       <c r="K27" s="27">
         <v>-7.777777777777775</v>
       </c>
-      <c r="L27" s="41">
+      <c r="L27" s="40">
         <v>20</v>
       </c>
-      <c r="M27" s="41">
+      <c r="M27" s="40">
         <v>40</v>
       </c>
       <c r="N27" s="7">
@@ -8034,10 +7901,10 @@
       <c r="AI27" s="28">
         <v>0</v>
       </c>
-      <c r="AJ27" s="42">
+      <c r="AJ27" s="41">
         <v>45</v>
       </c>
-      <c r="AK27" s="42">
+      <c r="AK27" s="41">
         <v>10</v>
       </c>
       <c r="AL27" s="13">
@@ -8173,28 +8040,26 @@
         <v>0.16666666666666671</v>
       </c>
       <c r="CD27" s="32">
-        <v>0</v>
-      </c>
-      <c r="CE27" s="32"/>
-      <c r="CF27" s="32"/>
-      <c r="CG27" s="32">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="CE27" s="32">
+        <v>1</v>
+      </c>
+      <c r="CF27" s="1">
+        <v>4</v>
+      </c>
+      <c r="CG27" s="1">
+        <v>0</v>
       </c>
       <c r="CH27" s="1">
         <v>4</v>
       </c>
-      <c r="CI27" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ27" s="1">
-        <v>4</v>
-      </c>
+      <c r="CI27" s="25"/>
+      <c r="CJ27" s="25"/>
       <c r="CK27" s="25"/>
       <c r="CL27" s="25"/>
-      <c r="CM27" s="25"/>
-      <c r="CN27" s="25"/>
     </row>
-    <row r="28" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>8</v>
       </c>
@@ -8210,7 +8075,7 @@
       <c r="E28" s="9">
         <v>33</v>
       </c>
-      <c r="F28" s="40">
+      <c r="F28" s="39">
         <v>35</v>
       </c>
       <c r="G28" s="25">
@@ -8228,10 +8093,10 @@
       <c r="K28" s="25">
         <v>-14.333333333333332</v>
       </c>
-      <c r="L28" s="41">
+      <c r="L28" s="40">
         <v>20</v>
       </c>
-      <c r="M28" s="41">
+      <c r="M28" s="40">
         <v>30</v>
       </c>
       <c r="N28" s="7">
@@ -8300,10 +8165,10 @@
       <c r="AI28" s="28">
         <v>2</v>
       </c>
-      <c r="AJ28" s="42">
+      <c r="AJ28" s="41">
         <v>22</v>
       </c>
-      <c r="AK28" s="42">
+      <c r="AK28" s="41">
         <v>32</v>
       </c>
       <c r="AL28" s="13">
@@ -8441,26 +8306,24 @@
       <c r="CD28" s="32">
         <v>0</v>
       </c>
-      <c r="CE28" s="32"/>
-      <c r="CF28" s="32"/>
-      <c r="CG28" s="32">
-        <v>0</v>
+      <c r="CE28" s="32">
+        <v>0</v>
+      </c>
+      <c r="CF28" s="1">
+        <v>7</v>
+      </c>
+      <c r="CG28" s="1">
+        <v>2</v>
       </c>
       <c r="CH28" s="1">
-        <v>7</v>
-      </c>
-      <c r="CI28" s="1">
-        <v>2</v>
-      </c>
-      <c r="CJ28" s="1">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="CI28" s="25"/>
+      <c r="CJ28" s="25"/>
       <c r="CK28" s="25"/>
       <c r="CL28" s="25"/>
-      <c r="CM28" s="25"/>
-      <c r="CN28" s="25"/>
     </row>
-    <row r="29" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>8</v>
       </c>
@@ -8473,7 +8336,7 @@
       <c r="D29" s="29">
         <v>25</v>
       </c>
-      <c r="E29" s="43">
+      <c r="E29" s="42">
         <v>27</v>
       </c>
       <c r="F29" s="26">
@@ -8494,10 +8357,10 @@
       <c r="K29" s="25">
         <v>-11.777777777777779</v>
       </c>
-      <c r="L29" s="41">
+      <c r="L29" s="40">
         <v>30</v>
       </c>
-      <c r="M29" s="41">
+      <c r="M29" s="40">
         <v>20</v>
       </c>
       <c r="N29" s="7">
@@ -8566,10 +8429,10 @@
       <c r="AI29" s="28">
         <v>2</v>
       </c>
-      <c r="AJ29" s="42">
+      <c r="AJ29" s="41">
         <v>20</v>
       </c>
-      <c r="AK29" s="42">
+      <c r="AK29" s="41">
         <v>28</v>
       </c>
       <c r="AL29" s="13">
@@ -8707,32 +8570,30 @@
       <c r="CD29" s="32">
         <v>0</v>
       </c>
-      <c r="CE29" s="32"/>
-      <c r="CF29" s="32"/>
-      <c r="CG29" s="32">
-        <v>1</v>
+      <c r="CE29" s="32">
+        <v>1</v>
+      </c>
+      <c r="CF29" s="1">
+        <v>7</v>
+      </c>
+      <c r="CG29" s="1">
+        <v>2</v>
       </c>
       <c r="CH29" s="1">
+        <v>1</v>
+      </c>
+      <c r="CI29" s="25">
+        <v>18</v>
+      </c>
+      <c r="CJ29" s="25">
         <v>7</v>
       </c>
-      <c r="CI29" s="1">
-        <v>2</v>
-      </c>
-      <c r="CJ29" s="1">
-        <v>1</v>
-      </c>
       <c r="CK29" s="25">
-        <v>18</v>
-      </c>
-      <c r="CL29" s="25">
-        <v>7</v>
-      </c>
-      <c r="CM29" s="25">
         <v>8</v>
       </c>
-      <c r="CN29" s="25"/>
+      <c r="CL29" s="25"/>
     </row>
-    <row r="30" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>9</v>
       </c>
@@ -8748,7 +8609,7 @@
       <c r="E30" s="4">
         <v>95</v>
       </c>
-      <c r="F30" s="44">
+      <c r="F30" s="43">
         <v>6</v>
       </c>
       <c r="G30" s="25">
@@ -8979,26 +8840,24 @@
       <c r="CD30" s="32">
         <v>0</v>
       </c>
-      <c r="CE30" s="32"/>
-      <c r="CF30" s="32"/>
-      <c r="CG30" s="32">
-        <v>0</v>
+      <c r="CE30" s="32">
+        <v>0</v>
+      </c>
+      <c r="CF30" s="1">
+        <v>6</v>
+      </c>
+      <c r="CG30" s="1">
+        <v>1</v>
       </c>
       <c r="CH30" s="1">
-        <v>6</v>
-      </c>
-      <c r="CI30" s="1">
-        <v>1</v>
-      </c>
-      <c r="CJ30" s="1">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="CI30" s="25"/>
+      <c r="CJ30" s="25"/>
       <c r="CK30" s="25"/>
       <c r="CL30" s="25"/>
-      <c r="CM30" s="25"/>
-      <c r="CN30" s="25"/>
     </row>
-    <row r="31" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>9</v>
       </c>
@@ -9011,10 +8870,10 @@
       <c r="D31" s="3">
         <v>55</v>
       </c>
-      <c r="E31" s="45">
+      <c r="E31" s="44">
         <v>23</v>
       </c>
-      <c r="F31" s="44">
+      <c r="F31" s="43">
         <v>28</v>
       </c>
       <c r="G31" s="25">
@@ -9245,26 +9104,24 @@
       <c r="CD31" s="32">
         <v>0</v>
       </c>
-      <c r="CE31" s="32"/>
-      <c r="CF31" s="32"/>
-      <c r="CG31" s="32">
-        <v>0</v>
+      <c r="CE31" s="32">
+        <v>0</v>
+      </c>
+      <c r="CF31" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG31" s="1">
+        <v>7</v>
       </c>
       <c r="CH31" s="1">
         <v>0</v>
       </c>
-      <c r="CI31" s="1">
-        <v>7</v>
-      </c>
-      <c r="CJ31" s="1">
-        <v>0</v>
-      </c>
+      <c r="CI31" s="25"/>
+      <c r="CJ31" s="25"/>
       <c r="CK31" s="25"/>
       <c r="CL31" s="25"/>
-      <c r="CM31" s="25"/>
-      <c r="CN31" s="25"/>
     </row>
-    <row r="32" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>9</v>
       </c>
@@ -9274,10 +9131,10 @@
       <c r="C32" s="1">
         <v>3</v>
       </c>
-      <c r="D32" s="36">
+      <c r="D32" s="35">
         <v>30</v>
       </c>
-      <c r="E32" s="39">
+      <c r="E32" s="38">
         <v>40</v>
       </c>
       <c r="F32" s="26">
@@ -9511,26 +9368,24 @@
       <c r="CD32" s="32">
         <v>0</v>
       </c>
-      <c r="CE32" s="32"/>
-      <c r="CF32" s="32"/>
-      <c r="CG32" s="32">
+      <c r="CE32" s="32">
+        <v>1</v>
+      </c>
+      <c r="CF32" s="1">
+        <v>7</v>
+      </c>
+      <c r="CG32" s="1">
         <v>1</v>
       </c>
       <c r="CH32" s="1">
-        <v>7</v>
-      </c>
-      <c r="CI32" s="1">
-        <v>1</v>
-      </c>
-      <c r="CJ32" s="1">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="CI32" s="25"/>
+      <c r="CJ32" s="25"/>
       <c r="CK32" s="25"/>
       <c r="CL32" s="25"/>
-      <c r="CM32" s="25"/>
-      <c r="CN32" s="25"/>
     </row>
-    <row r="33" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>9</v>
       </c>
@@ -9540,13 +9395,13 @@
       <c r="C33" s="1">
         <v>4</v>
       </c>
-      <c r="D33" s="43">
+      <c r="D33" s="42">
         <v>25</v>
       </c>
-      <c r="E33" s="39">
+      <c r="E33" s="38">
         <v>35</v>
       </c>
-      <c r="F33" s="44">
+      <c r="F33" s="43">
         <v>34</v>
       </c>
       <c r="G33" s="25">
@@ -9777,32 +9632,30 @@
       <c r="CD33" s="32">
         <v>0</v>
       </c>
-      <c r="CE33" s="32"/>
-      <c r="CF33" s="32"/>
-      <c r="CG33" s="32">
+      <c r="CE33" s="32">
         <v>2</v>
       </c>
+      <c r="CF33" s="1">
+        <v>6</v>
+      </c>
+      <c r="CG33" s="1">
+        <v>1</v>
+      </c>
       <c r="CH33" s="1">
-        <v>6</v>
-      </c>
-      <c r="CI33" s="1">
-        <v>1</v>
-      </c>
-      <c r="CJ33" s="1">
         <v>2</v>
       </c>
+      <c r="CI33" s="25">
+        <v>19</v>
+      </c>
+      <c r="CJ33" s="25">
+        <v>10</v>
+      </c>
       <c r="CK33" s="25">
-        <v>19</v>
-      </c>
-      <c r="CL33" s="25">
-        <v>10</v>
-      </c>
-      <c r="CM33" s="25">
         <v>3</v>
       </c>
-      <c r="CN33" s="25"/>
+      <c r="CL33" s="25"/>
     </row>
-    <row r="34" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>10</v>
       </c>
@@ -10049,26 +9902,24 @@
       <c r="CD34" s="32">
         <v>1</v>
       </c>
-      <c r="CE34" s="32"/>
-      <c r="CF34" s="32"/>
-      <c r="CG34" s="32">
+      <c r="CE34" s="32">
+        <v>0</v>
+      </c>
+      <c r="CF34" s="1">
+        <v>1</v>
+      </c>
+      <c r="CG34" s="1">
         <v>0</v>
       </c>
       <c r="CH34" s="1">
-        <v>1</v>
-      </c>
-      <c r="CI34" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ34" s="1">
         <v>6</v>
       </c>
+      <c r="CI34" s="25"/>
+      <c r="CJ34" s="25"/>
       <c r="CK34" s="25"/>
       <c r="CL34" s="25"/>
-      <c r="CM34" s="25"/>
-      <c r="CN34" s="25"/>
     </row>
-    <row r="35" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>10</v>
       </c>
@@ -10081,7 +9932,7 @@
       <c r="D35" s="3">
         <v>20</v>
       </c>
-      <c r="E35" s="37">
+      <c r="E35" s="36">
         <v>45</v>
       </c>
       <c r="F35" s="5">
@@ -10315,26 +10166,24 @@
       <c r="CD35" s="32">
         <v>0</v>
       </c>
-      <c r="CE35" s="32"/>
-      <c r="CF35" s="32"/>
-      <c r="CG35" s="32">
+      <c r="CE35" s="32">
+        <v>0</v>
+      </c>
+      <c r="CF35" s="1">
+        <v>7</v>
+      </c>
+      <c r="CG35" s="1">
         <v>0</v>
       </c>
       <c r="CH35" s="1">
-        <v>7</v>
-      </c>
-      <c r="CI35" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ35" s="1">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="CI35" s="25"/>
+      <c r="CJ35" s="25"/>
       <c r="CK35" s="25"/>
       <c r="CL35" s="25"/>
-      <c r="CM35" s="25"/>
-      <c r="CN35" s="25"/>
     </row>
-    <row r="36" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>10</v>
       </c>
@@ -10347,10 +10196,10 @@
       <c r="D36" s="3">
         <v>40</v>
       </c>
-      <c r="E36" s="39">
+      <c r="E36" s="38">
         <v>35</v>
       </c>
-      <c r="F36" s="44">
+      <c r="F36" s="43">
         <v>35</v>
       </c>
       <c r="G36" s="25">
@@ -10581,26 +10430,24 @@
       <c r="CD36" s="32">
         <v>1</v>
       </c>
-      <c r="CE36" s="32"/>
-      <c r="CF36" s="32"/>
-      <c r="CG36" s="32">
+      <c r="CE36" s="32">
         <v>2</v>
       </c>
+      <c r="CF36" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG36" s="1">
+        <v>4</v>
+      </c>
       <c r="CH36" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI36" s="1">
-        <v>4</v>
-      </c>
-      <c r="CJ36" s="1">
         <v>5</v>
       </c>
+      <c r="CI36" s="25"/>
+      <c r="CJ36" s="25"/>
       <c r="CK36" s="25"/>
       <c r="CL36" s="25"/>
-      <c r="CM36" s="25"/>
-      <c r="CN36" s="25"/>
     </row>
-    <row r="37" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>10</v>
       </c>
@@ -10613,7 +10460,7 @@
       <c r="D37" s="3">
         <v>30</v>
       </c>
-      <c r="E37" s="39">
+      <c r="E37" s="38">
         <v>45</v>
       </c>
       <c r="F37" s="26">
@@ -10847,30 +10694,28 @@
       <c r="CD37" s="32">
         <v>0</v>
       </c>
-      <c r="CE37" s="32"/>
-      <c r="CF37" s="32"/>
-      <c r="CG37" s="32">
+      <c r="CE37" s="32">
+        <v>1</v>
+      </c>
+      <c r="CF37" s="1">
+        <v>7</v>
+      </c>
+      <c r="CG37" s="1">
         <v>1</v>
       </c>
       <c r="CH37" s="1">
-        <v>7</v>
-      </c>
-      <c r="CI37" s="1">
-        <v>1</v>
-      </c>
-      <c r="CJ37" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="CI37" s="25">
+        <v>15</v>
+      </c>
+      <c r="CJ37" s="25">
+        <v>5</v>
       </c>
       <c r="CK37" s="25">
-        <v>15</v>
-      </c>
-      <c r="CL37" s="25">
-        <v>5</v>
-      </c>
-      <c r="CM37" s="25">
         <v>12</v>
       </c>
-      <c r="CN37" s="25"/>
+      <c r="CL37" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Datos/JASP_Datos_subjuego1_r3.xlsx
+++ b/Datos/JASP_Datos_subjuego1_r3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Sesion</t>
   </si>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>TC</t>
+  </si>
+  <si>
+    <t>Dan</t>
   </si>
 </sst>
 </file>
@@ -883,11 +886,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CL37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BZ1" workbookViewId="0">
-      <selection activeCell="CA8" sqref="CA8"/>
+    <sheetView tabSelected="1" topLeftCell="BY1" workbookViewId="0">
+      <selection activeCell="CU21" sqref="CU21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="90" max="90" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1157,7 +1163,9 @@
       <c r="CK1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="25"/>
+      <c r="CL1" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="2" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -1421,7 +1429,10 @@
       <c r="CI2" s="25"/>
       <c r="CJ2" s="25"/>
       <c r="CK2" s="25"/>
-      <c r="CL2" s="25"/>
+      <c r="CL2" s="25">
+        <f>AVERAGE(V2,AT2,BR2)</f>
+        <v>-0.45813953488372089</v>
+      </c>
     </row>
     <row r="3" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -1685,7 +1696,10 @@
       <c r="CI3" s="25"/>
       <c r="CJ3" s="25"/>
       <c r="CK3" s="25"/>
-      <c r="CL3" s="25"/>
+      <c r="CL3" s="25">
+        <f t="shared" ref="CL3:CL37" si="0">AVERAGE(V3,AT3,BR3)</f>
+        <v>-5.5084745762711849E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -1949,7 +1963,10 @@
       <c r="CI4" s="25"/>
       <c r="CJ4" s="25"/>
       <c r="CK4" s="25"/>
-      <c r="CL4" s="25"/>
+      <c r="CL4" s="25">
+        <f t="shared" si="0"/>
+        <v>0.65254237288135586</v>
+      </c>
     </row>
     <row r="5" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -2219,7 +2236,10 @@
       <c r="CK5" s="25">
         <v>13</v>
       </c>
-      <c r="CL5" s="25"/>
+      <c r="CL5" s="25">
+        <f t="shared" si="0"/>
+        <v>1.6216216216216217</v>
+      </c>
     </row>
     <row r="6" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -2483,7 +2503,10 @@
       <c r="CI6" s="25"/>
       <c r="CJ6" s="25"/>
       <c r="CK6" s="25"/>
-      <c r="CL6" s="25"/>
+      <c r="CL6" s="25">
+        <f t="shared" si="0"/>
+        <v>-0.18351063829787231</v>
+      </c>
     </row>
     <row r="7" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -2747,7 +2770,10 @@
       <c r="CI7" s="25"/>
       <c r="CJ7" s="25"/>
       <c r="CK7" s="25"/>
-      <c r="CL7" s="25"/>
+      <c r="CL7" s="25">
+        <f t="shared" si="0"/>
+        <v>-0.29197080291970806</v>
+      </c>
     </row>
     <row r="8" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -3011,7 +3037,10 @@
       <c r="CI8" s="25"/>
       <c r="CJ8" s="25"/>
       <c r="CK8" s="25"/>
-      <c r="CL8" s="25"/>
+      <c r="CL8" s="25">
+        <f t="shared" si="0"/>
+        <v>6.5384615384615388E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -3281,7 +3310,10 @@
       <c r="CK9" s="25">
         <v>5</v>
       </c>
-      <c r="CL9" s="25"/>
+      <c r="CL9" s="25">
+        <f t="shared" si="0"/>
+        <v>0.30645161290322581</v>
+      </c>
     </row>
     <row r="10" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -3545,7 +3577,10 @@
       <c r="CI10" s="25"/>
       <c r="CJ10" s="25"/>
       <c r="CK10" s="25"/>
-      <c r="CL10" s="25"/>
+      <c r="CL10" s="25">
+        <f t="shared" si="0"/>
+        <v>0.69444444444444431</v>
+      </c>
     </row>
     <row r="11" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -3809,7 +3844,10 @@
       <c r="CI11" s="25"/>
       <c r="CJ11" s="25"/>
       <c r="CK11" s="25"/>
-      <c r="CL11" s="25"/>
+      <c r="CL11" s="25">
+        <f t="shared" si="0"/>
+        <v>-0.2608695652173913</v>
+      </c>
     </row>
     <row r="12" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -4073,7 +4111,10 @@
       <c r="CI12" s="25"/>
       <c r="CJ12" s="25"/>
       <c r="CK12" s="25"/>
-      <c r="CL12" s="25"/>
+      <c r="CL12" s="25">
+        <f t="shared" si="0"/>
+        <v>0.1328125</v>
+      </c>
     </row>
     <row r="13" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -4343,7 +4384,10 @@
       <c r="CK13" s="25">
         <v>1</v>
       </c>
-      <c r="CL13" s="25"/>
+      <c r="CL13" s="25">
+        <f t="shared" si="0"/>
+        <v>0.38461538461538464</v>
+      </c>
     </row>
     <row r="14" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -4607,7 +4651,10 @@
       <c r="CI14" s="25"/>
       <c r="CJ14" s="25"/>
       <c r="CK14" s="25"/>
-      <c r="CL14" s="25"/>
+      <c r="CL14" s="25">
+        <f t="shared" si="0"/>
+        <v>-6.3291139240506666E-3</v>
+      </c>
     </row>
     <row r="15" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -4871,7 +4918,10 @@
       <c r="CI15" s="25"/>
       <c r="CJ15" s="25"/>
       <c r="CK15" s="25"/>
-      <c r="CL15" s="25"/>
+      <c r="CL15" s="25">
+        <f t="shared" si="0"/>
+        <v>0.46470588235294125</v>
+      </c>
     </row>
     <row r="16" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -5135,7 +5185,10 @@
       <c r="CI16" s="25"/>
       <c r="CJ16" s="25"/>
       <c r="CK16" s="25"/>
-      <c r="CL16" s="25"/>
+      <c r="CL16" s="25">
+        <f t="shared" si="0"/>
+        <v>0.19607843137254899</v>
+      </c>
     </row>
     <row r="17" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -5405,7 +5458,10 @@
       <c r="CK17" s="25">
         <v>3</v>
       </c>
-      <c r="CL17" s="25"/>
+      <c r="CL17" s="25">
+        <f t="shared" si="0"/>
+        <v>0.81818181818181834</v>
+      </c>
     </row>
     <row r="18" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -5669,7 +5725,10 @@
       <c r="CI18" s="25"/>
       <c r="CJ18" s="25"/>
       <c r="CK18" s="25"/>
-      <c r="CL18" s="25"/>
+      <c r="CL18" s="25">
+        <f t="shared" si="0"/>
+        <v>-1.9736842105263146E-2</v>
+      </c>
     </row>
     <row r="19" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -5933,7 +5992,10 @@
       <c r="CI19" s="25"/>
       <c r="CJ19" s="25"/>
       <c r="CK19" s="25"/>
-      <c r="CL19" s="25"/>
+      <c r="CL19" s="25">
+        <f t="shared" si="0"/>
+        <v>-0.34090909090909088</v>
+      </c>
     </row>
     <row r="20" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -6197,7 +6259,10 @@
       <c r="CI20" s="25"/>
       <c r="CJ20" s="25"/>
       <c r="CK20" s="25"/>
-      <c r="CL20" s="25"/>
+      <c r="CL20" s="25">
+        <f t="shared" si="0"/>
+        <v>-9.4488188976377938E-2</v>
+      </c>
     </row>
     <row r="21" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -6467,7 +6532,10 @@
       <c r="CK21" s="25">
         <v>9</v>
       </c>
-      <c r="CL21" s="25"/>
+      <c r="CL21" s="25">
+        <f t="shared" si="0"/>
+        <v>0.25714285714285717</v>
+      </c>
     </row>
     <row r="22" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -6731,7 +6799,10 @@
       <c r="CI22" s="25"/>
       <c r="CJ22" s="25"/>
       <c r="CK22" s="25"/>
-      <c r="CL22" s="25"/>
+      <c r="CL22" s="25">
+        <f t="shared" si="0"/>
+        <v>-0.18897637795275588</v>
+      </c>
     </row>
     <row r="23" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -6995,7 +7066,10 @@
       <c r="CI23" s="25"/>
       <c r="CJ23" s="25"/>
       <c r="CK23" s="25"/>
-      <c r="CL23" s="25"/>
+      <c r="CL23" s="25">
+        <f t="shared" si="0"/>
+        <v>7.9207920792079237E-2</v>
+      </c>
     </row>
     <row r="24" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -7259,7 +7333,10 @@
       <c r="CI24" s="25"/>
       <c r="CJ24" s="25"/>
       <c r="CK24" s="25"/>
-      <c r="CL24" s="25"/>
+      <c r="CL24" s="25">
+        <f t="shared" si="0"/>
+        <v>1.6888888888888889</v>
+      </c>
     </row>
     <row r="25" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -7529,7 +7606,10 @@
       <c r="CK25" s="25">
         <v>13</v>
       </c>
-      <c r="CL25" s="25"/>
+      <c r="CL25" s="25">
+        <f t="shared" si="0"/>
+        <v>-0.19626168224299065</v>
+      </c>
     </row>
     <row r="26" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -7793,7 +7873,10 @@
       <c r="CI26" s="25"/>
       <c r="CJ26" s="25"/>
       <c r="CK26" s="25"/>
-      <c r="CL26" s="25"/>
+      <c r="CL26" s="25">
+        <f t="shared" si="0"/>
+        <v>0.73529411764705888</v>
+      </c>
     </row>
     <row r="27" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -8057,7 +8140,10 @@
       <c r="CI27" s="25"/>
       <c r="CJ27" s="25"/>
       <c r="CK27" s="25"/>
-      <c r="CL27" s="25"/>
+      <c r="CL27" s="25">
+        <f t="shared" si="0"/>
+        <v>-2.5000000000000005E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -8321,7 +8407,10 @@
       <c r="CI28" s="25"/>
       <c r="CJ28" s="25"/>
       <c r="CK28" s="25"/>
-      <c r="CL28" s="25"/>
+      <c r="CL28" s="25">
+        <f t="shared" si="0"/>
+        <v>4.301075268817204E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -8591,7 +8680,10 @@
       <c r="CK29" s="25">
         <v>8</v>
       </c>
-      <c r="CL29" s="25"/>
+      <c r="CL29" s="25">
+        <f t="shared" si="0"/>
+        <v>-3.6585365853658534E-2</v>
+      </c>
     </row>
     <row r="30" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -8855,7 +8947,10 @@
       <c r="CI30" s="25"/>
       <c r="CJ30" s="25"/>
       <c r="CK30" s="25"/>
-      <c r="CL30" s="25"/>
+      <c r="CL30" s="25">
+        <f t="shared" si="0"/>
+        <v>-0.53424657534246578</v>
+      </c>
     </row>
     <row r="31" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -9119,7 +9214,10 @@
       <c r="CI31" s="25"/>
       <c r="CJ31" s="25"/>
       <c r="CK31" s="25"/>
-      <c r="CL31" s="25"/>
+      <c r="CL31" s="25">
+        <f t="shared" si="0"/>
+        <v>0.11792452830188678</v>
+      </c>
     </row>
     <row r="32" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -9383,7 +9481,10 @@
       <c r="CI32" s="25"/>
       <c r="CJ32" s="25"/>
       <c r="CK32" s="25"/>
-      <c r="CL32" s="25"/>
+      <c r="CL32" s="25">
+        <f t="shared" si="0"/>
+        <v>-1.9607843137254902E-2</v>
+      </c>
     </row>
     <row r="33" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -9653,7 +9754,10 @@
       <c r="CK33" s="25">
         <v>3</v>
       </c>
-      <c r="CL33" s="25"/>
+      <c r="CL33" s="25">
+        <f t="shared" si="0"/>
+        <v>1.5957446808510634E-2</v>
+      </c>
     </row>
     <row r="34" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -9917,7 +10021,10 @@
       <c r="CI34" s="25"/>
       <c r="CJ34" s="25"/>
       <c r="CK34" s="25"/>
-      <c r="CL34" s="25"/>
+      <c r="CL34" s="25">
+        <f t="shared" si="0"/>
+        <v>-0.265625</v>
+      </c>
     </row>
     <row r="35" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -10181,7 +10288,10 @@
       <c r="CI35" s="25"/>
       <c r="CJ35" s="25"/>
       <c r="CK35" s="25"/>
-      <c r="CL35" s="25"/>
+      <c r="CL35" s="25">
+        <f t="shared" si="0"/>
+        <v>0.11607142857142856</v>
+      </c>
     </row>
     <row r="36" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -10445,7 +10555,10 @@
       <c r="CI36" s="25"/>
       <c r="CJ36" s="25"/>
       <c r="CK36" s="25"/>
-      <c r="CL36" s="25"/>
+      <c r="CL36" s="25">
+        <f t="shared" si="0"/>
+        <v>0.11363636363636365</v>
+      </c>
     </row>
     <row r="37" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -10715,7 +10828,10 @@
       <c r="CK37" s="25">
         <v>12</v>
       </c>
-      <c r="CL37" s="25"/>
+      <c r="CL37" s="25">
+        <f t="shared" si="0"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
